--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSSistemaPuntoVentaClinico.Solucion\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -78,13 +78,19 @@
   </si>
   <si>
     <t>Colocar el cambio de estatus en la pantalla de gastos</t>
+  </si>
+  <si>
+    <t>Que pueda Anular Facturas</t>
+  </si>
+  <si>
+    <t>Cargar todos los RNC en la pantalla de cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +98,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,13 +140,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -426,7 +462,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -437,7 +473,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -448,7 +484,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -459,7 +495,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -470,7 +506,7 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -481,7 +517,7 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -492,7 +528,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -503,7 +539,7 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -514,7 +550,7 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -525,7 +561,7 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -536,7 +572,7 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -547,7 +583,7 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -558,7 +594,29 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,8 +462,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,8 +484,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,8 +495,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,8 +506,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,8 +528,8 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,8 +473,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,8 +517,8 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,8 +484,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,8 +616,8 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSSistemaPuntoVentaClinico.Solucion\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSSistemaPuntoVentaClinico.Solucion\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>No.</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Cargar todos los RNC en la pantalla de cliente</t>
+  </si>
+  <si>
+    <t>Corregir la facturacion</t>
   </si>
 </sst>
 </file>
@@ -431,20 +434,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -466,7 +469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,7 +480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,7 +491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,7 +502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -510,7 +513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -521,7 +524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -532,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -543,7 +546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -554,7 +557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -565,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -576,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -587,7 +590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -598,7 +601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -609,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -618,6 +621,17 @@
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Corregir la facturacion</t>
+  </si>
+  <si>
+    <t>En el reporte de cuadre de caja, mostrar cuantos registros se facturaron y cuantos tienes programada cirugias</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,8 +545,8 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,8 +556,8 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,8 +567,8 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +633,18 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>No.</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>En el reporte de cuadre de caja, mostrar cuantos registros se facturaron y cuantos tienes programada cirugias</t>
+  </si>
+  <si>
+    <t>Devolver los productos al inventario luego de aver anulado una factura</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,8 +614,8 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,6 +648,17 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Devolver los productos al inventario luego de aver anulado una factura</t>
+  </si>
+  <si>
+    <t>Devolver todos los productos al inventario en caso de cerrar la pantalla de facturacion</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,8 +661,19 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSSistemaPuntoVentaClinico.Solucion\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSSistemaPuntoVentaClinico.Solucion\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>No.</t>
   </si>
@@ -96,13 +96,19 @@
   </si>
   <si>
     <t>Devolver todos los productos al inventario en caso de cerrar la pantalla de facturacion</t>
+  </si>
+  <si>
+    <t>Verificar si la factura anulada tiene cirugias programadas y si tiene preguntar si quiere eliminar la cirugia del sistema.</t>
+  </si>
+  <si>
+    <t>Agregar el campo de numero de identificacion en la pantalla de facturación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +126,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,10 +171,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -443,31 +458,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,7 +493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,7 +504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -500,7 +515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -511,7 +526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -522,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -533,7 +548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -544,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -555,7 +570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -566,7 +581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -577,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -588,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -599,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -610,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -621,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -632,7 +647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -643,18 +658,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -665,7 +680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -676,7 +691,30 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BD/Puntos Pendientes.xlsx
+++ b/BD/Puntos Pendientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>No.</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Si es una cotizacion que no te valide el monto ingresado</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t xml:space="preserve">colocar la palabra cotizacion si es una cotizacion </t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Completo</t>
   </si>
   <si>
-    <t>Colocar el cambio de estatus en la pantalla de gastos</t>
-  </si>
-  <si>
     <t>Que pueda Anular Facturas</t>
   </si>
   <si>
@@ -98,17 +92,23 @@
     <t>Devolver todos los productos al inventario en caso de cerrar la pantalla de facturacion</t>
   </si>
   <si>
-    <t>Verificar si la factura anulada tiene cirugias programadas y si tiene preguntar si quiere eliminar la cirugia del sistema.</t>
-  </si>
-  <si>
     <t>Agregar el campo de numero de identificacion en la pantalla de facturación.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Ordenar en order de mayor a menor en historial de facturacion</t>
+  </si>
+  <si>
+    <t>En la consulta colocar un check para que permita buscar los registros sin rango de fecha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +124,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,11 +142,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,20 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,13 +457,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -489,8 +474,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,8 +485,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,8 +496,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,8 +507,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,8 +518,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,8 +529,8 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,8 +540,8 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -566,8 +551,8 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,8 +562,8 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -588,8 +573,8 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,10 +593,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -619,10 +604,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,10 +615,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,76 +626,79 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
